--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/Testcase/Testcase_af_asdf_af_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/Testcase/Testcase_af_asdf_af_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF138EF-AF5A-42C0-8D21-3CA1351E0FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C3258B-8B1A-4E15-AF7E-CB7E251E0935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27465" yWindow="1890" windowWidth="24855" windowHeight="15315" xr2:uid="{9C4D0841-7674-4B1F-B9EB-671E73D9C116}"/>
+    <workbookView xWindow="-26775" yWindow="2580" windowWidth="24855" windowHeight="15315" xr2:uid="{9C4D0841-7674-4B1F-B9EB-671E73D9C116}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -90,478 +90,3166 @@
     <t>Testcase_af_asdf_af_DCOM_5</t>
   </si>
   <si>
-    <t>2.1.1 Check all allowed diagnostic sessions in service 0x10</t>
-  </si>
-  <si>
     <t>This testcase check all allowed diagnostic session</t>
+  </si>
+  <si>
+    <t>Automated Testcase</t>
+  </si>
+  <si>
+    <t>implemented</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_6</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_7</t>
+  </si>
+  <si>
+    <t>This testcase check all diagnostic sessions can be transited from Default session</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_8</t>
+  </si>
+  <si>
+    <t>This testcase check all diagnostic sessions can be transited from Programming session</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_9</t>
+  </si>
+  <si>
+    <t>This testcase check all diagnostic sessions can be transited from Extended session</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_10</t>
+  </si>
+  <si>
+    <t>This testcase check all supported addressing mode</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_11</t>
+  </si>
+  <si>
+    <t>This testcase check suppress bit</t>
   </si>
   <si>
     <t xml:space="preserve">1) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
 2) Wait 1000 ms
-3) Read active session with service 0x22 
+3) Read active session with service 0x22 F1 86
 4) Tester present ON wait 0
 5) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
 6) Wait 1000 ms
-7) Read active session with service 0x22 
+7) Read active session with service 0x22 F1 86
 8) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
 9) Wait 1000 ms
-10) Read active session with service 0x22 
+10) Read active session with service 0x22 F1 86
 11) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
 12) Wait 1000 ms
-13) Read active session with service 0x22 
+13) Read active session with service 0x22 F1 86
 14) Tester present OFF wait 100
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) Positive response is received: 0x50 01
 2) -
-3) Positive response is received: 0x 62  01
+3) Positive response is received: 0x 62 F1 86 01
 4) -
 5) Positive response is received: 0x50 03
 6) -
-7) Positive response is received: 0x 62  03
+7) Positive response is received: 0x 62 F1 86 03
 8) Positive response is received: 0x50 02
 9) -
-10) Positive response is received: 0x 62  02
+10) Positive response is received: 0x 62 F1 86 02
 11) Positive response is received: 0x50 01
 12) -
-13) Positive response is received: 0x 62  01
+13) Positive response is received: 0x 62 F1 86 01
 14) -
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) RequestResponse(1001, 5001, Equal)
 2) wait(1000)
-3) RequestResponse(22, 6201, Equal)
+3) RequestResponse(22f186, 62f18601, Equal)
 4) envvar(EnvTesterPresentOnOff(1; 0))
 5) RequestResponse(1003, 5003, Equal)
 6) wait(1000)
-7) RequestResponse(22, 6203, Equal)
+7) RequestResponse(22f186, 62f18603, Equal)
 8) RequestResponse(1002, 5002, Equal)
 9) wait(1000)
-10) RequestResponse(22, 6202, Equal)
+10) RequestResponse(22f186, 62f18602, Equal)
 11) RequestResponse(1001, 5001, Equal)
 12) wait(1000)
-13) RequestResponse(22, 6201, Equal)
+13) RequestResponse(22f186, 62f18601, Equal)
 14) envvar(EnvTesterPresentOnOff(0; 100))
 </t>
-  </si>
-  <si>
-    <t>Automated Testcase</t>
-  </si>
-  <si>
-    <t>implemented</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>Testcase_af_asdf_af_DCOM_6</t>
-  </si>
-  <si>
-    <t>2.1.2 Session transitions</t>
-  </si>
-  <si>
-    <t>Testcase_af_asdf_af_DCOM_7</t>
-  </si>
-  <si>
-    <t>2.1.2.1 Session transitions - From Default Session</t>
-  </si>
-  <si>
-    <t>This testcase check all diagnostic sessions can be transited from Default session</t>
   </si>
   <si>
     <t xml:space="preserve">1) Tester present ON wait 0
 2) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-3) Read active session with service 0x22 
+3) Read active session with service 0x22 F1 86
 4) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-5) Read active session with service 0x22 
+5) Read active session with service 0x22 F1 86
 6) Tester present OFF wait 0
 7) Tester present ON wait 0
 8) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-9) Read active session with service 0x22 
+9) Read active session with service 0x22 F1 86
 10) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
-11) Read active session with service 0x22 
+11) Read active session with service 0x22 F1 86
 12) Tester present OFF wait 0
 13) Tester present ON wait 0
 14) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-15) Read active session with service 0x22 
+15) Read active session with service 0x22 F1 86
 16) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
-17) Read active session with service 0x22 
+17) Read active session with service 0x22 F1 86
 18) Tester present OFF wait 0
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) -
 2) Positive response is received: 0x50 01
-3) Positive response is received: 0x 62  01
+3) Positive response is received: 0x 62 F1 86 01
 4) No response is received
-5) Positive response is received: 0x 62  01
+5) Positive response is received: 0x 62 F1 86 01
 6) -
 7) -
 8) Positive response is received: 0x50 01
-9) Positive response is received: 0x 62  01
+9) Positive response is received: 0x 62 F1 86 01
 10) No response is received
-11) Positive response is received: 0x 62  01
+11) Positive response is received: 0x 62 F1 86 01
 12) -
 13) -
 14) Positive response is received: 0x50 01
-15) Positive response is received: 0x 62  01
+15) Positive response is received: 0x 62 F1 86 01
 16) No response is received
-17) Positive response is received: 0x 62  01
+17) Positive response is received: 0x 62 F1 86 01
 18) -
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
 2) RequestResponse(1001, 5001, Equal)
-3) RequestResponse(22, 6201, Equal)
+3) RequestResponse(22f186, 62f18601, Equal)
 4) RequestResponse(1001, , None)
-5) RequestResponse(22, 6201, Equal)
+5) RequestResponse(22f186, 62f18601, Equal)
 6) envvar(EnvTesterPresentOnOff(0; 0))
 7) envvar(EnvTesterPresentOnOff(1; 0))
 8) RequestResponse(1001, 5001, Equal)
-9) RequestResponse(22, 6201, Equal)
+9) RequestResponse(22f186, 62f18601, Equal)
 10) RequestResponse(1002, , None)
-11) RequestResponse(22, 6201, Equal)
+11) RequestResponse(22f186, 62f18601, Equal)
 12) envvar(EnvTesterPresentOnOff(0; 0))
 13) envvar(EnvTesterPresentOnOff(1; 0))
 14) RequestResponse(1001, 5001, Equal)
-15) RequestResponse(22, 6201, Equal)
+15) RequestResponse(22f186, 62f18601, Equal)
 16) RequestResponse(1003, , None)
-17) RequestResponse(22, 6201, Equal)
+17) RequestResponse(22f186, 62f18601, Equal)
 18) envvar(EnvTesterPresentOnOff(0; 0))
 </t>
-  </si>
-  <si>
-    <t>Testcase_af_asdf_af_DCOM_8</t>
-  </si>
-  <si>
-    <t>2.1.2.2 Session transitions - From Programming Session</t>
-  </si>
-  <si>
-    <t>This testcase check all diagnostic sessions can be transited from Programming session</t>
   </si>
   <si>
     <t xml:space="preserve">1) Tester present ON wait 0
 2) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-3) Read active session with service 0x22 
+3) Read active session with service 0x22 F1 86
 4) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
-5) Read active session with service 0x22 
+5) Read active session with service 0x22 F1 86
 6) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-7) Read active session with service 0x22 
+7) Read active session with service 0x22 F1 86
 8) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-9) Read active session with service 0x22 
+9) Read active session with service 0x22 F1 86
 10) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
-11) Read active session with service 0x22 
+11) Read active session with service 0x22 F1 86
 12) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
-13) Read active session with service 0x22 
+13) Read active session with service 0x22 F1 86
 14) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-15) Read active session with service 0x22 
+15) Read active session with service 0x22 F1 86
 16) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
-17) Read active session with service 0x22 
+17) Read active session with service 0x22 F1 86
 18) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
-19) Read active session with service 0x22 
+19) Read active session with service 0x22 F1 86
 20) Tester present OFF wait 0
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) -
 2) Positive response is received: 0x50 01
-3) Positive response is received: 0x 62  01
+3) Positive response is received: 0x 62 F1 86 01
 4) Positive response is received: 0x50 02
-5) Positive response is received: 0x 62  02
+5) Positive response is received: 0x 62 F1 86 02
 6) No response is received
-7) Positive response is received: 0x 62  02
+7) Positive response is received: 0x 62 F1 86 02
 8) Positive response is received: 0x50 01
-9) Positive response is received: 0x 62  01
+9) Positive response is received: 0x 62 F1 86 01
 10) Positive response is received: 0x50 02
-11) Positive response is received: 0x 62  02
+11) Positive response is received: 0x 62 F1 86 02
 12) No response is received
-13) Positive response is received: 0x 62  02
+13) Positive response is received: 0x 62 F1 86 02
 14) Positive response is received: 0x50 01
-15) Positive response is received: 0x 62  01
+15) Positive response is received: 0x 62 F1 86 01
 16) Positive response is received: 0x50 02
-17) Positive response is received: 0x 62  02
+17) Positive response is received: 0x 62 F1 86 02
 18) No response is received
-19) Positive response is received: 0x 62  02
+19) Positive response is received: 0x 62 F1 86 02
 20) -
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
 2) RequestResponse(1001, 5001, Equal)
-3) RequestResponse(22, 6201, Equal)
+3) RequestResponse(22f186, 62f18601, Equal)
 4) RequestResponse(1002, 5002, Equal)
-5) RequestResponse(22, 6202, Equal)
+5) RequestResponse(22f186, 62f18602, Equal)
 6) RequestResponse(1001, , None)
-7) RequestResponse(22, 6202, Equal)
+7) RequestResponse(22f186, 62f18602, Equal)
 8) RequestResponse(1001, 5001, Equal)
-9) RequestResponse(22, 6201, Equal)
+9) RequestResponse(22f186, 62f18601, Equal)
 10) RequestResponse(1002, 5002, Equal)
-11) RequestResponse(22, 6202, Equal)
+11) RequestResponse(22f186, 62f18602, Equal)
 12) RequestResponse(1002, , None)
-13) RequestResponse(22, 6202, Equal)
+13) RequestResponse(22f186, 62f18602, Equal)
 14) RequestResponse(1001, 5001, Equal)
-15) RequestResponse(22, 6201, Equal)
+15) RequestResponse(22f186, 62f18601, Equal)
 16) RequestResponse(1002, 5002, Equal)
-17) RequestResponse(22, 6202, Equal)
+17) RequestResponse(22f186, 62f18602, Equal)
 18) RequestResponse(1003, , None)
-19) RequestResponse(22, 6202, Equal)
+19) RequestResponse(22f186, 62f18602, Equal)
 20) envvar(EnvTesterPresentOnOff(0; 0))
 </t>
-  </si>
-  <si>
-    <t>Testcase_af_asdf_af_DCOM_9</t>
-  </si>
-  <si>
-    <t>2.1.2.3 Session transitions - From Extended Session</t>
-  </si>
-  <si>
-    <t>This testcase check all diagnostic sessions can be transited from Extended session</t>
   </si>
   <si>
     <t xml:space="preserve">1) Tester present ON wait 0
 2) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-3) Read active session with service 0x22 
+3) Read active session with service 0x22 F1 86
 4) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
-5) Read active session with service 0x22 
+5) Read active session with service 0x22 F1 86
 6) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-7) Read active session with service 0x22 
+7) Read active session with service 0x22 F1 86
 8) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-9) Read active session with service 0x22 
+9) Read active session with service 0x22 F1 86
 10) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
-11) Read active session with service 0x22 
+11) Read active session with service 0x22 F1 86
 12) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
-13) Read active session with service 0x22 
+13) Read active session with service 0x22 F1 86
 14) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-15) Read active session with service 0x22 
+15) Read active session with service 0x22 F1 86
 16) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
-17) Read active session with service 0x22 
+17) Read active session with service 0x22 F1 86
 18) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
-19) Read active session with service 0x22 
+19) Read active session with service 0x22 F1 86
 20) Tester present OFF wait 0
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) -
 2) Positive response is received: 0x50 01
-3) Positive response is received: 0x 62  01
+3) Positive response is received: 0x 62 F1 86 01
 4) Positive response is received: 0x50 03
-5) Positive response is received: 0x 62  03
+5) Positive response is received: 0x 62 F1 86 03
 6) No response is received
-7) Positive response is received: 0x 62  03
+7) Positive response is received: 0x 62 F1 86 03
 8) Positive response is received: 0x50 01
-9) Positive response is received: 0x 62  01
+9) Positive response is received: 0x 62 F1 86 01
 10) Positive response is received: 0x50 03
-11) Positive response is received: 0x 62  03
+11) Positive response is received: 0x 62 F1 86 03
 12) No response is received
-13) Positive response is received: 0x 62  03
+13) Positive response is received: 0x 62 F1 86 03
 14) Positive response is received: 0x50 01
-15) Positive response is received: 0x 62  01
+15) Positive response is received: 0x 62 F1 86 01
 16) Positive response is received: 0x50 03
-17) Positive response is received: 0x 62  03
+17) Positive response is received: 0x 62 F1 86 03
 18) No response is received
-19) Positive response is received: 0x 62  03
+19) Positive response is received: 0x 62 F1 86 03
 20) -
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
 2) RequestResponse(1001, 5001, Equal)
-3) RequestResponse(22, 6201, Equal)
+3) RequestResponse(22f186, 62f18601, Equal)
 4) RequestResponse(1003, 5003, Equal)
-5) RequestResponse(22, 6203, Equal)
+5) RequestResponse(22f186, 62f18603, Equal)
 6) RequestResponse(1001, , None)
-7) RequestResponse(22, 6203, Equal)
+7) RequestResponse(22f186, 62f18603, Equal)
 8) RequestResponse(1001, 5001, Equal)
-9) RequestResponse(22, 6201, Equal)
+9) RequestResponse(22f186, 62f18601, Equal)
 10) RequestResponse(1003, 5003, Equal)
-11) RequestResponse(22, 6203, Equal)
+11) RequestResponse(22f186, 62f18603, Equal)
 12) RequestResponse(1002, , None)
-13) RequestResponse(22, 6203, Equal)
+13) RequestResponse(22f186, 62f18603, Equal)
 14) RequestResponse(1001, 5001, Equal)
-15) RequestResponse(22, 6201, Equal)
+15) RequestResponse(22f186, 62f18601, Equal)
 16) RequestResponse(1003, 5003, Equal)
-17) RequestResponse(22, 6203, Equal)
+17) RequestResponse(22f186, 62f18603, Equal)
 18) RequestResponse(1003, , None)
-19) RequestResponse(22, 6203, Equal)
+19) RequestResponse(22f186, 62f18603, Equal)
 20) envvar(EnvTesterPresentOnOff(0; 0))
 </t>
-  </si>
-  <si>
-    <t>Testcase_af_asdf_af_DCOM_10</t>
-  </si>
-  <si>
-    <t>2.1.3 Check all supported addressing mode in service 0x10</t>
-  </si>
-  <si>
-    <t>This testcase check all supported addressing mode</t>
   </si>
   <si>
     <t xml:space="preserve">1) Request change the diagnostic session with service 0x10 01 in Functional Addressing Mode
 2) Wait 1000 ms
-3) Read active session with service 0x22 
+3) Read active session with service 0x22 F1 86
 4) Tester present ON wait 0
 5) Request change the diagnostic session with service 0x10 03 in Functional Addressing Mode
 6) Wait 1000 ms
-7) Read active session with service 0x22 
+7) Read active session with service 0x22 F1 86
 8) Request change the diagnostic session with service 0x10 02 in Functional Addressing Mode
 9) Wait 1000 ms
-10) Read active session with service 0x22 
+10) Read active session with service 0x22 F1 86
 11) Request change the diagnostic session with service 0x10 01 in Functional Addressing Mode
 12) Wait 1000 ms
-13) Read active session with service 0x22 
+13) Read active session with service 0x22 F1 86
 14) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
 15) Wait 1000 ms
-16) Read active session with service 0x22 
+16) Read active session with service 0x22 F1 86
 17) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
 18) Wait 1000 ms
-19) Read active session with service 0x22 
+19) Read active session with service 0x22 F1 86
 20) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
 21) Wait 1000 ms
-22) Read active session with service 0x22 
+22) Read active session with service 0x22 F1 86
 23) Tester present OFF wait 0
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) No response is received
 2) -
-3) Positive response is received: 0x 62  01
+3) Positive response is received: 0x 62 F1 86 01
 4) -
 5) No response is received
 6) -
-7) Positive response is received: 0x 62  03
+7) Positive response is received: 0x 62 F1 86 03
 8) No response is received
 9) -
-10) Positive response is received: 0x 62  02
+10) Positive response is received: 0x 62 F1 86 02
 11) No response is received
 12) -
-13) Positive response is received: 0x 62  01
+13) Positive response is received: 0x 62 F1 86 01
 14) Negative response is received: 0x7F 50 7F
 15) -
-16) Positive response is received: 0x 62  03
+16) Positive response is received: 0x 62 F1 86 03
 17) Negative response is received: 0x7F 50 7F
 18) -
-19) Positive response is received: 0x 62  02
+19) Positive response is received: 0x 62 F1 86 02
 20) Negative response is received: 0x7F 50 7F
 21) -
-22) Positive response is received: 0x 62  01
+22) Positive response is received: 0x 62 F1 86 01
 23) -
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) FunctionalMessage(1001, , None)
 2) wait(1000)
-3) RequestResponse(22, 6201, Equal)
+3) RequestResponse(22f186, 62f18601, Equal)
 4) envvar(EnvTesterPresentOnOff(1; 0))
 5) FunctionalMessage(1003, , None)
 6) wait(1000)
-7) RequestResponse(22, 6203, Equal)
+7) RequestResponse(22f186, 62f18603, Equal)
 8) FunctionalMessage(1002, , None)
 9) wait(1000)
-10) RequestResponse(22, 6202, Equal)
+10) RequestResponse(22f186, 62f18602, Equal)
 11) FunctionalMessage(1001, , None)
 12) wait(1000)
-13) RequestResponse(22, 6201, Equal)
+13) RequestResponse(22f186, 62f18601, Equal)
 14) RequestResponse(1003, 7f507f, Equal)
 15) wait(1000)
-16) RequestResponse(22, 6203, Equal)
+16) RequestResponse(22f186, 62f18603, Equal)
 17) RequestResponse(1002, 7f507f, Equal)
 18) wait(1000)
-19) RequestResponse(22, 6202, Equal)
+19) RequestResponse(22f186, 62f18602, Equal)
 20) RequestResponse(1001, 7f507f, Equal)
 21) wait(1000)
-22) RequestResponse(22, 6201, Equal)
+22) RequestResponse(22f186, 62f18601, Equal)
 23) envvar(EnvTesterPresentOnOff(0; 0))
 </t>
-  </si>
-  <si>
-    <t>Testcase_af_asdf_af_DCOM_11</t>
-  </si>
-  <si>
-    <t>2.1.4 Check suppress bit in service 0x10</t>
-  </si>
-  <si>
-    <t>This testcase check suppress bit</t>
   </si>
   <si>
     <t xml:space="preserve">1) Request change the diagnostic session with service 0x10 81 in Functional Addressing Mode
 2) Wait 1000 ms
-3) Read active session with service 0x22 
+3) Read active session with service 0x22 F1 86
 4) Tester present ON wait 0
 5) Request change the diagnostic session with service 0x10 83 in Functional Addressing Mode
 6) Wait 1000 ms
-7) Read active session with service 0x22 
+7) Read active session with service 0x22 F1 86
 8) Request change the diagnostic session with service 0x10 82 in Functional Addressing Mode
 9) Wait 1000 ms
-10) Read active session with service 0x22 
+10) Read active session with service 0x22 F1 86
 11) Request change the diagnostic session with service 0x10 81 in Functional Addressing Mode
 12) Wait 1000 ms
-13) Read active session with service 0x22 
+13) Read active session with service 0x22 F1 86
 28) Request change the diagnostic session with service 0x10 83 in Physical Addressing Mode
 29) Wait 1000 ms
-30) Read active session with service 0x22 
+30) Read active session with service 0x22 F1 86
 31) Request change the diagnostic session with service 0x10 82 in Physical Addressing Mode
 32) Wait 1000 ms
-33) Read active session with service 0x22 
+33) Read active session with service 0x22 F1 86
 34) Request change the diagnostic session with service 0x10 81 in Physical Addressing Mode
 35) Wait 1000 ms
-36) Read active session with service 0x22 
+36) Read active session with service 0x22 F1 86
 37) Tester present OFF wait 0
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) No response is received
 2) -
-3) Positive response is received: 0x 62  01
+3) Positive response is received: 0x 62 F1 86 01
 4) -
 5) No response is received
 6) -
-7) Positive response is received: 0x 62  03
+7) Positive response is received: 0x 62 F1 86 03
 8) No response is received
 9) -
-10) Positive response is received: 0x 62  02
+10) Positive response is received: 0x 62 F1 86 02
 11) No response is received
 12) -
-13) Positive response is received: 0x 62  01
+13) Positive response is received: 0x 62 F1 86 01
 28) Negative response is received: 0x7F 50 7F
 29) -
-30) Positive response is received: 0x 62  03
+30) Positive response is received: 0x 62 F1 86 03
 31) Negative response is received: 0x7F 50 7F
 32) -
-33) Positive response is received: 0x 62  02
+33) Positive response is received: 0x 62 F1 86 02
 34) Negative response is received: 0x7F 50 7F
 35) -
-36) Positive response is received: 0x 62  01
+36) Positive response is received: 0x 62 F1 86 01
 37) -
 </t>
   </si>
   <si>
     <t xml:space="preserve">1) FunctionalMessage(1081, , None)
 2) wait(1000)
-3) RequestResponse(22, 6201, Equal)
+3) RequestResponse(22f186, 62f18601, Equal)
 4) envvar(EnvTesterPresentOnOff(1; 0))
 5) FunctionalMessage(1083, , None)
 6) wait(1000)
-7) RequestResponse(22, 6203, Equal)
+7) RequestResponse(22f186, 62f18603, Equal)
 8) FunctionalMessage(1082, , None)
 9) wait(1000)
-10) RequestResponse(22, 6202, Equal)
+10) RequestResponse(22f186, 62f18602, Equal)
 11) FunctionalMessage(1081, , None)
 12) wait(1000)
-13) RequestResponse(22, 6201, Equal)
+13) RequestResponse(22f186, 62f18601, Equal)
 28) RequestResponse(1083, 7f507f, Equal)
 29) wait(1000)
-30) RequestResponse(22, 6203, Equal)
+30) RequestResponse(22f186, 62f18603, Equal)
 31) RequestResponse(1082, 7f507f, Equal)
 32) wait(1000)
-33) RequestResponse(22, 6202, Equal)
+33) RequestResponse(22f186, 62f18602, Equal)
 34) RequestResponse(1081, 7f507f, Equal)
 35) wait(1000)
-36) RequestResponse(22, 6201, Equal)
+36) RequestResponse(22f186, 62f18601, Equal)
 37) envvar(EnvTesterPresentOnOff(0; 0))
 </t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_12</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_13</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 86 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 86 01
+7) -
+8) Positive response is received: 0x 62 F1 86 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 86 01
+12) -
+13) Positive response is received: 0x 62 F1 86 02
+14) No response is received
+15) -
+16) Positive response is received: 0x 62 F1 86 01
+17) -
+18) Positive response is received: 0x 62 F1 86 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 86 01
+22) -
+23) Positive response is received: 0x 62 F1 86 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 86 01
+27) -
+28) Positive response is received: 0x 62 F1 86 02
+29) No response is received
+30) -
+31) Positive response is received: 0x 62 F1 86 01
+32) -
+33) Positive response is received: 0x 62 F1 86 01
+34) No response is received
+35) -
+36) Positive response is received: 0x 62 F1 86 01
+37) -
+38) Positive response is received: 0x 62 F1 86 03
+39) No response is received
+40) -
+41) Positive response is received: 0x 62 F1 86 01
+42) -
+43) Positive response is received: 0x 62 F1 86 02
+44) No response is received
+45) -
+46) Positive response is received: 0x 62 F1 86 01
+47) -
+48) -
+49) -
+50) Positive response is received: 0x 62 F1 86 01
+51) Negative response is received: 0x7F 51 7F
+52) -
+53) Positive response is received: 0x 62 F1 86 01
+54) -
+55) Positive response is received: 0x 62 F1 86 03
+56) Negative response is received: 0x7F 51 7F
+57) -
+58) Positive response is received: 0x 62 F1 86 01
+59) -
+60) Positive response is received: 0x 62 F1 86 02
+61) Negative response is received: 0x7F 51 7F
+62) -
+63) Positive response is received: 0x 62 F1 86 01
+64) -
+65) Positive response is received: 0x 62 F1 86 01
+66) Negative response is received: 0x7F 51 7F
+67) -
+68) Positive response is received: 0x 62 F1 86 01
+69) -
+70) Positive response is received: 0x 62 F1 86 03
+71) Negative response is received: 0x7F 51 7F
+72) -
+73) Positive response is received: 0x 62 F1 86 01
+74) -
+75) Positive response is received: 0x 62 F1 86 02
+76) Negative response is received: 0x7F 51 7F
+77) -
+78) Positive response is received: 0x 62 F1 86 01
+79) -
+80) Positive response is received: 0x 62 F1 86 01
+81) Negative response is received: 0x7F 51 7F
+82) -
+83) Positive response is received: 0x 62 F1 86 01
+84) -
+85) Positive response is received: 0x 62 F1 86 03
+86) Negative response is received: 0x7F 51 7F
+87) -
+88) Positive response is received: 0x 62 F1 86 01
+89) -
+90) Positive response is received: 0x 62 F1 86 02
+91) Negative response is received: 0x7F 51 7F
+92) -
+93) Positive response is received: 0x 62 F1 86 01
+94) -
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request reset the camera with service 0x11 81 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request reset the camera with service 0x11 81 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request reset the camera with service 0x11 81 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 86
+19) Request reset the camera with service 0x11 82 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 86
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 86
+24) Request reset the camera with service 0x11 82 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 86
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 86
+29) Request reset the camera with service 0x11 82 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 86
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 86
+34) Request reset the camera with service 0x11 83 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 86
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 86
+39) Request reset the camera with service 0x11 83 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 86
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 86
+44) Request reset the camera with service 0x11 83 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 86
+47) Tester present OFF wait 0
+48) Tester present ON wait 0
+49) Change to Default session with service 0x10 01
+50) Read active session with service 0x22 F1 86
+51) Request reset the camera with service 0x11 81 in Physical Addressing Mode
+52) Wait 7000 ms
+53) Read active session with service 0x22 F1 86
+54) Change to Extended session with service 0x10 03
+55) Read active session with service 0x22 F1 86
+56) Request reset the camera with service 0x11 81 in Physical Addressing Mode
+57) Wait 7000 ms
+58) Read active session with service 0x22 F1 86
+59) Change to Programming session with service 0x10 02
+60) Read active session with service 0x22 F1 86
+61) Request reset the camera with service 0x11 81 in Physical Addressing Mode
+62) Wait 7000 ms
+63) Read active session with service 0x22 F1 86
+64) Change to Default session with service 0x10 01
+65) Read active session with service 0x22 F1 86
+66) Request reset the camera with service 0x11 82 in Physical Addressing Mode
+67) Wait 7000 ms
+68) Read active session with service 0x22 F1 86
+69) Change to Extended session with service 0x10 03
+70) Read active session with service 0x22 F1 86
+71) Request reset the camera with service 0x11 82 in Physical Addressing Mode
+72) Wait 7000 ms
+73) Read active session with service 0x22 F1 86
+74) Change to Programming session with service 0x10 02
+75) Read active session with service 0x22 F1 86
+76) Request reset the camera with service 0x11 82 in Physical Addressing Mode
+77) Wait 7000 ms
+78) Read active session with service 0x22 F1 86
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 86
+81) Request reset the camera with service 0x11 83 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 86
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 86
+86) Request reset the camera with service 0x11 83 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 86
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 86
+91) Request reset the camera with service 0x11 83 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 86
+94) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) FunctionalMessage(1181, , None)
+5) wait(7000)
+6) RequestResponse(22f186, 62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186, 62f18603, Equal)
+9) FunctionalMessage(1181, , None)
+10) wait(7000)
+11) RequestResponse(22f186, 62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186, 62f18602, Equal)
+14) FunctionalMessage(1181, , None)
+15) wait(7000)
+16) RequestResponse(22f186, 62f18601, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f186, 62f18601, Equal)
+19) FunctionalMessage(1182, , None)
+20) wait(7000)
+21) RequestResponse(22f186, 62f18601, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f186, 62f18603, Equal)
+24) FunctionalMessage(1182, , None)
+25) wait(7000)
+26) RequestResponse(22f186, 62f18601, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f186, 62f18602, Equal)
+29) FunctionalMessage(1182, , None)
+30) wait(7000)
+31) RequestResponse(22f186, 62f18601, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f186, 62f18601, Equal)
+34) FunctionalMessage(1183, , None)
+35) wait(7000)
+36) RequestResponse(22f186, 62f18601, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f186, 62f18603, Equal)
+39) FunctionalMessage(1183, , None)
+40) wait(7000)
+41) RequestResponse(22f186, 62f18601, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f186, 62f18602, Equal)
+44) FunctionalMessage(1183, , None)
+45) wait(7000)
+46) RequestResponse(22f186, 62f18601, Equal)
+47) envvar(EnvTesterPresentOnOff(0; 0))
+48) envvar(EnvTesterPresentOnOff(1; 0))
+49) DiagSessionCtrl(Default)
+50) RequestResponse(22f186, 62f18601, Equal)
+51) RequestResponse(1181, 7f517f, Equal)
+52) wait(7000)
+53) RequestResponse(22f186, 62f18601, Equal)
+54) DiagSessionCtrl(Extended)
+55) RequestResponse(22f186, 62f18603, Equal)
+56) RequestResponse(1181, 7f517f, Equal)
+57) wait(7000)
+58) RequestResponse(22f186, 62f18601, Equal)
+59) DiagSessionCtrl(Programming)
+60) RequestResponse(22f186, 62f18602, Equal)
+61) RequestResponse(1181, 7f517f, Equal)
+62) wait(7000)
+63) RequestResponse(22f186, 62f18601, Equal)
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f186, 62f18601, Equal)
+66) RequestResponse(1182, 7f517f, Equal)
+67) wait(7000)
+68) RequestResponse(22f186, 62f18601, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f186, 62f18603, Equal)
+71) RequestResponse(1182, 7f517f, Equal)
+72) wait(7000)
+73) RequestResponse(22f186, 62f18601, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f186, 62f18602, Equal)
+76) RequestResponse(1182, 7f517f, Equal)
+77) wait(7000)
+78) RequestResponse(22f186, 62f18601, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f186, 62f18601, Equal)
+81) RequestResponse(1183, 7f517f, Equal)
+82) wait(7000)
+83) RequestResponse(22f186, 62f18601, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f186, 62f18603, Equal)
+86) RequestResponse(1183, 7f517f, Equal)
+87) wait(7000)
+88) RequestResponse(22f186, 62f18601, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f186, 62f18602, Equal)
+91) RequestResponse(1183, 7f517f, Equal)
+92) wait(7000)
+93) RequestResponse(22f186, 62f18601, Equal)
+94) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>This testcase check all supported condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the () Voltage to Value -1 Wait 100 ms
+2) Request tester present with service 0x3E 00 in Physical Addressing Mode
+3) Request tester present with service 0x3E 00 in Functional Addressing Mode
+4) Request tester present with service 0x3E 80 in Physical Addressing Mode
+5) Request tester present with service 0x3E 80 in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) -
+7) Negative response is received: 0x7F 7E
+8) Negative response is received: 0x7F 7E
+9) Negative response is received: 0x7F 7E
+10) Negative response is received: 0x7F 7E
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11) EnvVar(EnvVoltage(-1, 100))
+12) RequestResponse(3e00, 7f7e, Equal)
+13) FunctionalMessage(3e00, 7f7e, Equal)
+14) RequestResponse(3e80, 7f7e, Equal)
+15) FunctionalMessage(3e80, 7f7e, Equal)
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_19</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_20</t>
+  </si>
+  <si>
+    <t>2.3 Service 14h - Clear Diagnostic Information</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Change to Default session with service 0x10 01
+2) Wait 1000 ms
+3) Read active session with service 0x22 F1 86
+4) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
+5) Change to Extended session with service 0x10 03
+6) Wait 1000 ms
+7) Read active session with service 0x22 F1 86
+8) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
+9) Change to Programming session with service 0x10 02
+10) Wait 1000 ms
+11) Read active session with service 0x22 F1 86
+12) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
+13) Change to Default session with service 0x10 01
+14) Read active session with service 0x22 F1 86
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 86 01
+4) Negative response is received: 0x7F 14 7F
+5) -
+6) -
+7) Positive response is received: 0x 62 F1 86 03
+8) Negative response is received: 0x7F 14 7F
+9) -
+10) -
+11) Positive response is received: 0x 62 F1 86 02
+12) Negative response is received: 0x7F 14 7F
+13) -
+14) Positive response is received: 0x 62 F1 86 01
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) DiagSessionCtrl(Default)
+2) wait(1000)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) RequestResponse(14ffffff, 7f147f, Equal)
+5) DiagSessionCtrl(Extended)
+6) wait(1000)
+7) RequestResponse(22f186, 62f18603, Equal)
+8) RequestResponse(14ffffff, 7f147f, Equal)
+9) DiagSessionCtrl(Programming)
+10) wait(1000)
+11) RequestResponse(22f186, 62f18602, Equal)
+12) RequestResponse(14ffffff, 7f147f, Equal)
+13) DiagSessionCtrl(Default)
+14) RequestResponse(22f186, 62f18601, Equal)
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Read active session with service 0x22 F1 86
+5) Request clear DTC with service 0x14 1 in Functional Addressing Mode
+6) Change to Extended session with service 0x10 03
+7) Wait 1000 ms
+8) Read active session with service 0x22 F1 86
+9) Request clear DTC with service 0x14 1 in Functional Addressing Mode
+10) Change to Programming session with service 0x10 02
+11) Wait 1000 ms
+12) Read active session with service 0x22 F1 86
+13) Request clear DTC with service 0x14 1 in Functional Addressing Mode
+14) Change to Default session with service 0x10 01
+15) Wait 1000 ms
+16) Read active session with service 0x22 F1 86
+17) Tester present OFF wait 0
+18) Tester present ON wait 0
+19) Change to Default session with service 0x10 01
+20) Wait 1000 ms
+21) Read active session with service 0x22 F1 86
+22) Request clear DTC with service 0x14 1 in Physical Addressing Mode
+23) Change to Extended session with service 0x10 03
+24) Wait 1000 ms
+25) Read active session with service 0x22 F1 86
+26) Request clear DTC with service 0x14 1 in Physical Addressing Mode
+27) Change to Programming session with service 0x10 02
+28) Wait 1000 ms
+29) Read active session with service 0x22 F1 86
+30) Request clear DTC with service 0x14 1 in Physical Addressing Mode
+31) Change to Default session with service 0x10 01
+32) Wait 1000 ms
+33) Read active session with service 0x22 F1 86
+34) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) Positive response is received: 0x 62 F1 86 01
+5) No response is received
+6) -
+7) -
+8) Positive response is received: 0x 62 F1 86 03
+9) No response is received
+10) -
+11) -
+12) Positive response is received: 0x 62 F1 86 02
+13) No response is received
+14) -
+15) -
+16) Positive response is received: 0x 62 F1 86 01
+17) -
+18) -
+19) -
+20) -
+21) Positive response is received: 0x 62 F1 86 01
+22) Negative response is received: 0x7F 14 7F
+23) -
+24) -
+25) Positive response is received: 0x 62 F1 86 03
+26) Negative response is received: 0x7F 14 7F
+27) -
+28) -
+29) Positive response is received: 0x 62 F1 86 02
+30) Negative response is received: 0x7F 14 7F
+31) -
+32) -
+33) Positive response is received: 0x 62 F1 86 01
+34) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) RequestResponse(22f186, 62f18601, Equal)
+5) FunctionalMessage(141, , None)
+6) DiagSessionCtrl(Extended)
+7) wait(1000)
+8) RequestResponse(22f186, 62f18603, Equal)
+9) FunctionalMessage(141, , None)
+10) DiagSessionCtrl(Programming)
+11) wait(1000)
+12) RequestResponse(22f186, 62f18602, Equal)
+13) FunctionalMessage(141, , None)
+14) DiagSessionCtrl(Default)
+15) wait(1000)
+16) RequestResponse(22f186, 62f18601, Equal)
+17) envvar(EnvTesterPresentOnOff(0; 0))
+18) envvar(EnvTesterPresentOnOff(1; 0))
+19) DiagSessionCtrl(Default)
+20) wait(1000)
+21) RequestResponse(22f186, 62f18601, Equal)
+22) RequestResponse(141, 7f147f, Equal)
+23) DiagSessionCtrl(Extended)
+24) wait(1000)
+25) RequestResponse(22f186, 62f18603, Equal)
+26) RequestResponse(141, 7f147f, Equal)
+27) DiagSessionCtrl(Programming)
+28) wait(1000)
+29) RequestResponse(22f186, 62f18602, Equal)
+30) RequestResponse(141, 7f147f, Equal)
+31) DiagSessionCtrl(Default)
+32) wait(1000)
+33) RequestResponse(22f186, 62f18601, Equal)
+34) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_23</t>
+  </si>
+  <si>
+    <t>2.5 Service 22h - Read Data By Identifier</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Send 22 F1 86 Using Physical Addressing Mode
+5) Change to Extended session with service 0x10 03
+6) Wait 1000 ms
+7) Send 22 F1 86 Using Physical Addressing Mode
+8) Change to Programming session with service 0x10 02
+9) Wait 1000 ms
+10) Send 22 F1 86 Using Physical Addressing Mode
+11) Change to Default session with service 0x10 01
+12) Wait 1000 ms
+13) Send 22 F1 86 Using Physical Addressing Mode
+14) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) Positive response is received: 0x62 F1 86 .* {1 }1
+5) -
+6) -
+7) Positive response is received: 0x62 F1 86 .* {1 }3
+8) -
+9) -
+10) Positive response is received: 0x62 F1 86 .* {1 }2
+11) -
+12) -
+13) Positive response is received: 0x62 F1 86 .* {1 }1
+14) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) RequestResponse(22f186, 62f186.*{1}1, Regexp)
+5) DiagSessionCtrl(Extended)
+6) wait(1000)
+7) RequestResponse(22f186, 62f186.*{1}3, Regexp)
+8) DiagSessionCtrl(Programming)
+9) wait(1000)
+10) RequestResponse(22f186, 62f186.*{1}2, Regexp)
+11) DiagSessionCtrl(Default)
+12) wait(1000)
+13) RequestResponse(22f186, 62f186.*{1}1, Regexp)
+14) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Send 22 F1 86 Using Functional Addressing Mode
+5) Change to Extended session with service 0x10 03
+6) Wait 1000 ms
+7) Send 22 F1 86 Using Functional Addressing Mode
+8) Change to Programming session with service 0x10 02
+9) Wait 1000 ms
+10) Send 22 F1 86 Using Functional Addressing Mode
+11) Change to Default session with service 0x10 01
+12) Wait 1000 ms
+13) Send 22 F1 86 Using Functional Addressing Mode
+14) Tester present OFF wait 0
+15) Tester present ON wait 0
+16) Change to Default session with service 0x10 01
+17) Wait 1000 ms
+18) Send 22 F1 86 Using Physical Addressing Mode
+19) Change to Extended session with service 0x10 03
+20) Wait 1000 ms
+21) Send 22 F1 86 Using Physical Addressing Mode
+22) Change to Programming session with service 0x10 02
+23) Wait 1000 ms
+24) Send 22 F1 86 Using Physical Addressing Mode
+25) Change to Default session with service 0x10 01
+26) Wait 1000 ms
+27) Send 22 F1 86 Using Physical Addressing Mode
+28) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) Positive response is received: 0x62 F1 86 .* {1 }1
+5) -
+6) -
+7) Positive response is received: 0x62 F1 86 .* {1 }3
+8) -
+9) -
+10) Positive response is received: 0x62 F1 86 .* {1 }2
+11) -
+12) -
+13) Positive response is received: 0x62 F1 86 .* {1 }1
+14) -
+15) -
+16) -
+17) -
+18) Positive response is received: 0x62 F1 86 .* {1 }1
+19) -
+20) -
+21) Positive response is received: 0x62 F1 86 .* {1 }3
+22) -
+23) -
+24) Positive response is received: 0x62 F1 86 .* {1 }2
+25) -
+26) -
+27) Positive response is received: 0x62 F1 86 .* {1 }1
+28) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) FunctionalMessage(22f186, 62f186.*{1}1, Regexp)
+5) DiagSessionCtrl(Extended)
+6) wait(1000)
+7) FunctionalMessage(22f186, 62f186.*{1}3, Regexp)
+8) DiagSessionCtrl(Programming)
+9) wait(1000)
+10) FunctionalMessage(22f186, 62f186.*{1}2, Regexp)
+11) DiagSessionCtrl(Default)
+12) wait(1000)
+13) FunctionalMessage(22f186, 62f186.*{1}1, Regexp)
+14) envvar(EnvTesterPresentOnOff(0; 0))
+15) envvar(EnvTesterPresentOnOff(1; 0))
+16) DiagSessionCtrl(Default)
+17) wait(1000)
+18) RequestResponse(22f186, 62f186.*{1}1, Regexp)
+19) DiagSessionCtrl(Extended)
+20) wait(1000)
+21) RequestResponse(22f186, 62f186.*{1}3, Regexp)
+22) DiagSessionCtrl(Programming)
+23) wait(1000)
+24) RequestResponse(22f186, 62f186.*{1}2, Regexp)
+25) DiagSessionCtrl(Default)
+26) wait(1000)
+27) RequestResponse(22f186, 62f186.*{1}1, Regexp)
+28) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_26</t>
+  </si>
+  <si>
+    <t>DID - Default</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_27</t>
+  </si>
+  <si>
+    <t>DID - Extended</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_28</t>
+  </si>
+  <si>
+    <t>DID - Programming</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_29</t>
+  </si>
+  <si>
+    <t>2.6 Service 27h - Security Access</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request security access with service 0x27 01 in Physical Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request security access with service 0x27 01 in Physical Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request security access with service 0x27 01 in Physical Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 86
+19) Request security access with service 0x27 02 in Physical Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 86
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 86
+24) Request security access with service 0x27 02 in Physical Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 86
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 86
+29) Request security access with service 0x27 02 in Physical Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 86
+32) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 86 01
+4) Negative response is received: 0x7F 67 7F
+5) -
+6) Positive response is received: 0x 62 F1 86 01
+7) -
+8) Positive response is received: 0x 62 F1 86 03
+9) Negative response is received: 0x7F 67 7F
+10) -
+11) Positive response is received: 0x 62 F1 86 01
+12) -
+13) Positive response is received: 0x 62 F1 86 02
+14) Negative response is received: 0x7F 67 7F
+15) -
+16) Positive response is received: 0x 62 F1 86 01
+17) -
+18) Positive response is received: 0x 62 F1 86 01
+19) Negative response is received: 0x7F 67 7F
+20) -
+21) Positive response is received: 0x 62 F1 86 01
+22) -
+23) Positive response is received: 0x 62 F1 86 03
+24) Negative response is received: 0x7F 67 7F
+25) -
+26) Positive response is received: 0x 62 F1 86 01
+27) -
+28) Positive response is received: 0x 62 F1 86 02
+29) Negative response is received: 0x7F 67 7F
+30) -
+31) Positive response is received: 0x 62 F1 86 01
+32) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) RequestResponse(2701, 7f677f, Equal)
+5) wait(7000)
+6) RequestResponse(22f186, 62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186, 62f18603, Equal)
+9) RequestResponse(2701, 7f677f, Equal)
+10) wait(7000)
+11) RequestResponse(22f186, 62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186, 62f18602, Equal)
+14) RequestResponse(2701, 7f677f, Equal)
+15) wait(7000)
+16) RequestResponse(22f186, 62f18601, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f186, 62f18601, Equal)
+19) RequestResponse(2702, 7f677f, Equal)
+20) wait(7000)
+21) RequestResponse(22f186, 62f18601, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f186, 62f18603, Equal)
+24) RequestResponse(2702, 7f677f, Equal)
+25) wait(7000)
+26) RequestResponse(22f186, 62f18601, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f186, 62f18602, Equal)
+29) RequestResponse(2702, 7f677f, Equal)
+30) wait(7000)
+31) RequestResponse(22f186, 62f18601, Equal)
+32) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request security access with service 0x27 01 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request security access with service 0x27 01 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request security access with service 0x27 01 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 86
+19) Request security access with service 0x27 02 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 86
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 86
+24) Request security access with service 0x27 02 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 86
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 86
+29) Request security access with service 0x27 02 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 86
+32) Tester present OFF wait 0
+33) Tester present ON wait 0
+34) Change to Default session with service 0x10 01
+35) Read active session with service 0x22 F1 86
+36) Request security access with service 0x27 01 in Physical Addressing Mode
+37) Wait 7000 ms
+38) Read active session with service 0x22 F1 86
+39) Change to Extended session with service 0x10 03
+40) Read active session with service 0x22 F1 86
+41) Request security access with service 0x27 01 in Physical Addressing Mode
+42) Wait 7000 ms
+43) Read active session with service 0x22 F1 86
+44) Change to Programming session with service 0x10 02
+45) Read active session with service 0x22 F1 86
+46) Request security access with service 0x27 01 in Physical Addressing Mode
+47) Wait 7000 ms
+48) Read active session with service 0x22 F1 86
+49) Change to Default session with service 0x10 01
+50) Read active session with service 0x22 F1 86
+51) Request security access with service 0x27 02 in Physical Addressing Mode
+52) Wait 7000 ms
+53) Read active session with service 0x22 F1 86
+54) Change to Extended session with service 0x10 03
+55) Read active session with service 0x22 F1 86
+56) Request security access with service 0x27 02 in Physical Addressing Mode
+57) Wait 7000 ms
+58) Read active session with service 0x22 F1 86
+59) Change to Programming session with service 0x10 02
+60) Read active session with service 0x22 F1 86
+61) Request security access with service 0x27 02 in Physical Addressing Mode
+62) Wait 7000 ms
+63) Read active session with service 0x22 F1 86
+64) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 86 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 86 01
+7) -
+8) Positive response is received: 0x 62 F1 86 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 86 01
+12) -
+13) Positive response is received: 0x 62 F1 86 02
+14) No response is received
+15) -
+16) Positive response is received: 0x 62 F1 86 01
+17) -
+18) Positive response is received: 0x 62 F1 86 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 86 01
+22) -
+23) Positive response is received: 0x 62 F1 86 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 86 01
+27) -
+28) Positive response is received: 0x 62 F1 86 02
+29) No response is received
+30) -
+31) Positive response is received: 0x 62 F1 86 01
+32) -
+33) -
+34) -
+35) Positive response is received: 0x 62 F1 86 01
+36) Negative response is received: 0x7F 67 7F
+37) -
+38) Positive response is received: 0x 62 F1 86 01
+39) -
+40) Positive response is received: 0x 62 F1 86 03
+41) Negative response is received: 0x7F 67 7F
+42) -
+43) Positive response is received: 0x 62 F1 86 01
+44) -
+45) Positive response is received: 0x 62 F1 86 02
+46) Negative response is received: 0x7F 67 7F
+47) -
+48) Positive response is received: 0x 62 F1 86 01
+49) -
+50) Positive response is received: 0x 62 F1 86 01
+51) Negative response is received: 0x7F 67 7F
+52) -
+53) Positive response is received: 0x 62 F1 86 01
+54) -
+55) Positive response is received: 0x 62 F1 86 03
+56) Negative response is received: 0x7F 67 7F
+57) -
+58) Positive response is received: 0x 62 F1 86 01
+59) -
+60) Positive response is received: 0x 62 F1 86 02
+61) Negative response is received: 0x7F 67 7F
+62) -
+63) Positive response is received: 0x 62 F1 86 01
+64) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) FunctionalMessage(2701, , None)
+5) wait(7000)
+6) RequestResponse(22f186, 62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186, 62f18603, Equal)
+9) FunctionalMessage(2701, , None)
+10) wait(7000)
+11) RequestResponse(22f186, 62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186, 62f18602, Equal)
+14) FunctionalMessage(2701, , None)
+15) wait(7000)
+16) RequestResponse(22f186, 62f18601, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f186, 62f18601, Equal)
+19) FunctionalMessage(2702, , None)
+20) wait(7000)
+21) RequestResponse(22f186, 62f18601, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f186, 62f18603, Equal)
+24) FunctionalMessage(2702, , None)
+25) wait(7000)
+26) RequestResponse(22f186, 62f18601, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f186, 62f18602, Equal)
+29) FunctionalMessage(2702, , None)
+30) wait(7000)
+31) RequestResponse(22f186, 62f18601, Equal)
+32) envvar(EnvTesterPresentOnOff(0; 0))
+33) envvar(EnvTesterPresentOnOff(1; 0))
+34) DiagSessionCtrl(Default)
+35) RequestResponse(22f186, 62f18601, Equal)
+36) RequestResponse(2701, 7f677f, Equal)
+37) wait(7000)
+38) RequestResponse(22f186, 62f18601, Equal)
+39) DiagSessionCtrl(Extended)
+40) RequestResponse(22f186, 62f18603, Equal)
+41) RequestResponse(2701, 7f677f, Equal)
+42) wait(7000)
+43) RequestResponse(22f186, 62f18601, Equal)
+44) DiagSessionCtrl(Programming)
+45) RequestResponse(22f186, 62f18602, Equal)
+46) RequestResponse(2701, 7f677f, Equal)
+47) wait(7000)
+48) RequestResponse(22f186, 62f18601, Equal)
+49) DiagSessionCtrl(Default)
+50) RequestResponse(22f186, 62f18601, Equal)
+51) RequestResponse(2702, 7f677f, Equal)
+52) wait(7000)
+53) RequestResponse(22f186, 62f18601, Equal)
+54) DiagSessionCtrl(Extended)
+55) RequestResponse(22f186, 62f18603, Equal)
+56) RequestResponse(2702, 7f677f, Equal)
+57) wait(7000)
+58) RequestResponse(22f186, 62f18601, Equal)
+59) DiagSessionCtrl(Programming)
+60) RequestResponse(22f186, 62f18602, Equal)
+61) RequestResponse(2702, 7f677f, Equal)
+62) wait(7000)
+63) RequestResponse(22f186, 62f18601, Equal)
+64) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request security access with service 0x27 81 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request security access with service 0x27 81 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request security access with service 0x27 81 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 86
+19) Request security access with service 0x27 82 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 86
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 86
+24) Request security access with service 0x27 82 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 86
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 86
+29) Request security access with service 0x27 82 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 86
+32) Tester present OFF wait 0
+33) Tester present ON wait 0
+34) Change to Default session with service 0x10 01
+35) Read active session with service 0x22 F1 86
+36) Request security access with service 0x27 81 in Physical Addressing Mode
+37) Wait 7000 ms
+38) Read active session with service 0x22 F1 86
+39) Change to Extended session with service 0x10 03
+40) Read active session with service 0x22 F1 86
+41) Request security access with service 0x27 81 in Physical Addressing Mode
+42) Wait 7000 ms
+43) Read active session with service 0x22 F1 86
+44) Change to Programming session with service 0x10 02
+45) Read active session with service 0x22 F1 86
+46) Request security access with service 0x27 81 in Physical Addressing Mode
+47) Wait 7000 ms
+48) Read active session with service 0x22 F1 86
+49) Change to Default session with service 0x10 01
+50) Read active session with service 0x22 F1 86
+51) Request security access with service 0x27 82 in Physical Addressing Mode
+52) Wait 7000 ms
+53) Read active session with service 0x22 F1 86
+54) Change to Extended session with service 0x10 03
+55) Read active session with service 0x22 F1 86
+56) Request security access with service 0x27 82 in Physical Addressing Mode
+57) Wait 7000 ms
+58) Read active session with service 0x22 F1 86
+59) Change to Programming session with service 0x10 02
+60) Read active session with service 0x22 F1 86
+61) Request security access with service 0x27 82 in Physical Addressing Mode
+62) Wait 7000 ms
+63) Read active session with service 0x22 F1 86
+64) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) FunctionalMessage(2781, , None)
+5) wait(7000)
+6) RequestResponse(22f186, 62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186, 62f18603, Equal)
+9) FunctionalMessage(2781, , None)
+10) wait(7000)
+11) RequestResponse(22f186, 62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186, 62f18602, Equal)
+14) FunctionalMessage(2781, , None)
+15) wait(7000)
+16) RequestResponse(22f186, 62f18601, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f186, 62f18601, Equal)
+19) FunctionalMessage(2782, , None)
+20) wait(7000)
+21) RequestResponse(22f186, 62f18601, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f186, 62f18603, Equal)
+24) FunctionalMessage(2782, , None)
+25) wait(7000)
+26) RequestResponse(22f186, 62f18601, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f186, 62f18602, Equal)
+29) FunctionalMessage(2782, , None)
+30) wait(7000)
+31) RequestResponse(22f186, 62f18601, Equal)
+32) envvar(EnvTesterPresentOnOff(0; 0))
+33) envvar(EnvTesterPresentOnOff(1; 0))
+34) DiagSessionCtrl(Default)
+35) RequestResponse(22f186, 62f18601, Equal)
+36) RequestResponse(2781, 7f677f, Equal)
+37) wait(7000)
+38) RequestResponse(22f186, 62f18601, Equal)
+39) DiagSessionCtrl(Extended)
+40) RequestResponse(22f186, 62f18603, Equal)
+41) RequestResponse(2781, 7f677f, Equal)
+42) wait(7000)
+43) RequestResponse(22f186, 62f18601, Equal)
+44) DiagSessionCtrl(Programming)
+45) RequestResponse(22f186, 62f18602, Equal)
+46) RequestResponse(2781, 7f677f, Equal)
+47) wait(7000)
+48) RequestResponse(22f186, 62f18601, Equal)
+49) DiagSessionCtrl(Default)
+50) RequestResponse(22f186, 62f18601, Equal)
+51) RequestResponse(2782, 7f677f, Equal)
+52) wait(7000)
+53) RequestResponse(22f186, 62f18601, Equal)
+54) DiagSessionCtrl(Extended)
+55) RequestResponse(22f186, 62f18603, Equal)
+56) RequestResponse(2782, 7f677f, Equal)
+57) wait(7000)
+58) RequestResponse(22f186, 62f18601, Equal)
+59) DiagSessionCtrl(Programming)
+60) RequestResponse(22f186, 62f18602, Equal)
+61) RequestResponse(2782, 7f677f, Equal)
+62) wait(7000)
+63) RequestResponse(22f186, 62f18601, Equal)
+64) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_33</t>
+  </si>
+  <si>
+    <t>2.7 Service 28h - Communication Control</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request communication control with service 0x28 00 in Physical Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request communication control with service 0x28 00 in Physical Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request communication control with service 0x28 00 in Physical Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 86
+19) Request communication control with service 0x28 01 in Physical Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 86
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 86
+24) Request communication control with service 0x28 01 in Physical Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 86
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 86
+29) Request communication control with service 0x28 01 in Physical Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 86
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 86
+34) Request communication control with service 0x28 02 in Physical Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 86
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 86
+39) Request communication control with service 0x28 02 in Physical Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 86
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 86
+44) Request communication control with service 0x28 02 in Physical Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 86
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 86
+49) Request communication control with service 0x28 03 in Physical Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 86
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 86
+54) Request communication control with service 0x28 03 in Physical Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 86
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 86
+59) Request communication control with service 0x28 03 in Physical Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 86
+62) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 86 01
+4) Negative response is received: 0x7F 68 7F
+5) -
+6) Positive response is received: 0x 62 F1 86 01
+7) -
+8) Positive response is received: 0x 62 F1 86 03
+9) Negative response is received: 0x7F 68 7F
+10) -
+11) Positive response is received: 0x 62 F1 86 01
+12) -
+13) Positive response is received: 0x 62 F1 86 02
+14) Negative response is received: 0x7F 68 7F
+15) -
+16) Positive response is received: 0x 62 F1 86 01
+17) -
+18) Positive response is received: 0x 62 F1 86 01
+19) Negative response is received: 0x7F 68 7F
+20) -
+21) Positive response is received: 0x 62 F1 86 01
+22) -
+23) Positive response is received: 0x 62 F1 86 03
+24) Negative response is received: 0x7F 68 7F
+25) -
+26) Positive response is received: 0x 62 F1 86 01
+27) -
+28) Positive response is received: 0x 62 F1 86 02
+29) Negative response is received: 0x7F 68 7F
+30) -
+31) Positive response is received: 0x 62 F1 86 01
+32) -
+33) Positive response is received: 0x 62 F1 86 01
+34) Negative response is received: 0x7F 68 7F
+35) -
+36) Positive response is received: 0x 62 F1 86 01
+37) -
+38) Positive response is received: 0x 62 F1 86 03
+39) Negative response is received: 0x7F 68 7F
+40) -
+41) Positive response is received: 0x 62 F1 86 01
+42) -
+43) Positive response is received: 0x 62 F1 86 02
+44) Negative response is received: 0x7F 68 7F
+45) -
+46) Positive response is received: 0x 62 F1 86 01
+47) -
+48) Positive response is received: 0x 62 F1 86 01
+49) Negative response is received: 0x7F 68 7F
+50) -
+51) Positive response is received: 0x 62 F1 86 01
+52) -
+53) Positive response is received: 0x 62 F1 86 03
+54) Negative response is received: 0x7F 68 7F
+55) -
+56) Positive response is received: 0x 62 F1 86 01
+57) -
+58) Positive response is received: 0x 62 F1 86 02
+59) Negative response is received: 0x7F 68 7F
+60) -
+61) Positive response is received: 0x 62 F1 86 01
+62) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) RequestResponse(2800, 7f687f, Equal)
+5) wait(7000)
+6) RequestResponse(22f186, 62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186, 62f18603, Equal)
+9) RequestResponse(2800, 7f687f, Equal)
+10) wait(7000)
+11) RequestResponse(22f186, 62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186, 62f18602, Equal)
+14) RequestResponse(2800, 7f687f, Equal)
+15) wait(7000)
+16) RequestResponse(22f186, 62f18601, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f186, 62f18601, Equal)
+19) RequestResponse(2801, 7f687f, Equal)
+20) wait(7000)
+21) RequestResponse(22f186, 62f18601, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f186, 62f18603, Equal)
+24) RequestResponse(2801, 7f687f, Equal)
+25) wait(7000)
+26) RequestResponse(22f186, 62f18601, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f186, 62f18602, Equal)
+29) RequestResponse(2801, 7f687f, Equal)
+30) wait(7000)
+31) RequestResponse(22f186, 62f18601, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f186, 62f18601, Equal)
+34) RequestResponse(2802, 7f687f, Equal)
+35) wait(7000)
+36) RequestResponse(22f186, 62f18601, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f186, 62f18603, Equal)
+39) RequestResponse(2802, 7f687f, Equal)
+40) wait(7000)
+41) RequestResponse(22f186, 62f18601, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f186, 62f18602, Equal)
+44) RequestResponse(2802, 7f687f, Equal)
+45) wait(7000)
+46) RequestResponse(22f186, 62f18601, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f186, 62f18601, Equal)
+49) RequestResponse(2803, 7f687f, Equal)
+50) wait(7000)
+51) RequestResponse(22f186, 62f18601, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f186, 62f18603, Equal)
+54) RequestResponse(2803, 7f687f, Equal)
+55) wait(7000)
+56) RequestResponse(22f186, 62f18601, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f186, 62f18602, Equal)
+59) RequestResponse(2803, 7f687f, Equal)
+60) wait(7000)
+61) RequestResponse(22f186, 62f18601, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request communication control with service 0x28 00 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request communication control with service 0x28 00 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request communication control with service 0x28 00 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 86
+19) Request communication control with service 0x28 01 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 86
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 86
+24) Request communication control with service 0x28 01 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 86
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 86
+29) Request communication control with service 0x28 01 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 86
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 86
+34) Request communication control with service 0x28 02 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 86
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 86
+39) Request communication control with service 0x28 02 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 86
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 86
+44) Request communication control with service 0x28 02 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 86
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 86
+49) Request communication control with service 0x28 03 in Functional Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 86
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 86
+54) Request communication control with service 0x28 03 in Functional Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 86
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 86
+59) Request communication control with service 0x28 03 in Functional Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 86
+62) Tester present OFF wait 0
+63) Tester present ON wait 0
+64) Change to Default session with service 0x10 01
+65) Read active session with service 0x22 F1 86
+66) Request communication control with service 0x28 00 in Physical Addressing Mode
+67) Wait 7000 ms
+68) Read active session with service 0x22 F1 86
+69) Change to Extended session with service 0x10 03
+70) Read active session with service 0x22 F1 86
+71) Request communication control with service 0x28 00 in Physical Addressing Mode
+72) Wait 7000 ms
+73) Read active session with service 0x22 F1 86
+74) Change to Programming session with service 0x10 02
+75) Read active session with service 0x22 F1 86
+76) Request communication control with service 0x28 00 in Physical Addressing Mode
+77) Wait 7000 ms
+78) Read active session with service 0x22 F1 86
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 86
+81) Request communication control with service 0x28 01 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 86
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 86
+86) Request communication control with service 0x28 01 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 86
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 86
+91) Request communication control with service 0x28 01 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 86
+94) Change to Default session with service 0x10 01
+95) Read active session with service 0x22 F1 86
+96) Request communication control with service 0x28 02 in Physical Addressing Mode
+97) Wait 7000 ms
+98) Read active session with service 0x22 F1 86
+99) Change to Extended session with service 0x10 03
+100) Read active session with service 0x22 F1 86
+101) Request communication control with service 0x28 02 in Physical Addressing Mode
+102) Wait 7000 ms
+103) Read active session with service 0x22 F1 86
+104) Change to Programming session with service 0x10 02
+105) Read active session with service 0x22 F1 86
+106) Request communication control with service 0x28 02 in Physical Addressing Mode
+107) Wait 7000 ms
+108) Read active session with service 0x22 F1 86
+109) Change to Default session with service 0x10 01
+110) Read active session with service 0x22 F1 86
+111) Request communication control with service 0x28 03 in Physical Addressing Mode
+112) Wait 7000 ms
+113) Read active session with service 0x22 F1 86
+114) Change to Extended session with service 0x10 03
+115) Read active session with service 0x22 F1 86
+116) Request communication control with service 0x28 03 in Physical Addressing Mode
+117) Wait 7000 ms
+118) Read active session with service 0x22 F1 86
+119) Change to Programming session with service 0x10 02
+120) Read active session with service 0x22 F1 86
+121) Request communication control with service 0x28 03 in Physical Addressing Mode
+122) Wait 7000 ms
+123) Read active session with service 0x22 F1 86
+124) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 86 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 86 01
+7) -
+8) Positive response is received: 0x 62 F1 86 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 86 01
+12) -
+13) Positive response is received: 0x 62 F1 86 02
+14) No response is received
+15) -
+16) Positive response is received: 0x 62 F1 86 01
+17) -
+18) Positive response is received: 0x 62 F1 86 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 86 01
+22) -
+23) Positive response is received: 0x 62 F1 86 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 86 01
+27) -
+28) Positive response is received: 0x 62 F1 86 02
+29) No response is received
+30) -
+31) Positive response is received: 0x 62 F1 86 01
+32) -
+33) Positive response is received: 0x 62 F1 86 01
+34) No response is received
+35) -
+36) Positive response is received: 0x 62 F1 86 01
+37) -
+38) Positive response is received: 0x 62 F1 86 03
+39) No response is received
+40) -
+41) Positive response is received: 0x 62 F1 86 01
+42) -
+43) Positive response is received: 0x 62 F1 86 02
+44) No response is received
+45) -
+46) Positive response is received: 0x 62 F1 86 01
+47) -
+48) Positive response is received: 0x 62 F1 86 01
+49) No response is received
+50) -
+51) Positive response is received: 0x 62 F1 86 01
+52) -
+53) Positive response is received: 0x 62 F1 86 03
+54) No response is received
+55) -
+56) Positive response is received: 0x 62 F1 86 01
+57) -
+58) Positive response is received: 0x 62 F1 86 02
+59) No response is received
+60) -
+61) Positive response is received: 0x 62 F1 86 01
+62) -
+63) -
+64) -
+65) Positive response is received: 0x 62 F1 86 01
+66) Negative response is received: 0x7F 68 7F
+67) -
+68) Positive response is received: 0x 62 F1 86 01
+69) -
+70) Positive response is received: 0x 62 F1 86 03
+71) Negative response is received: 0x7F 68 7F
+72) -
+73) Positive response is received: 0x 62 F1 86 01
+74) -
+75) Positive response is received: 0x 62 F1 86 02
+76) Negative response is received: 0x7F 68 7F
+77) -
+78) Positive response is received: 0x 62 F1 86 01
+79) -
+80) Positive response is received: 0x 62 F1 86 01
+81) Negative response is received: 0x7F 68 7F
+82) -
+83) Positive response is received: 0x 62 F1 86 01
+84) -
+85) Positive response is received: 0x 62 F1 86 03
+86) Negative response is received: 0x7F 68 7F
+87) -
+88) Positive response is received: 0x 62 F1 86 01
+89) -
+90) Positive response is received: 0x 62 F1 86 02
+91) Negative response is received: 0x7F 68 7F
+92) -
+93) Positive response is received: 0x 62 F1 86 01
+94) -
+95) Positive response is received: 0x 62 F1 86 01
+96) Negative response is received: 0x7F 68 7F
+97) -
+98) Positive response is received: 0x 62 F1 86 01
+99) -
+100) Positive response is received: 0x 62 F1 86 03
+101) Negative response is received: 0x7F 68 7F
+102) -
+103) Positive response is received: 0x 62 F1 86 01
+104) -
+105) Positive response is received: 0x 62 F1 86 02
+106) Negative response is received: 0x7F 68 7F
+107) -
+108) Positive response is received: 0x 62 F1 86 01
+109) -
+110) Positive response is received: 0x 62 F1 86 01
+111) Negative response is received: 0x7F 68 7F
+112) -
+113) Positive response is received: 0x 62 F1 86 01
+114) -
+115) Positive response is received: 0x 62 F1 86 03
+116) Negative response is received: 0x7F 68 7F
+117) -
+118) Positive response is received: 0x 62 F1 86 01
+119) -
+120) Positive response is received: 0x 62 F1 86 02
+121) Negative response is received: 0x7F 68 7F
+122) -
+123) Positive response is received: 0x 62 F1 86 01
+124) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) FunctionalMessage(2800, , None)
+5) wait(7000)
+6) RequestResponse(22f186, 62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186, 62f18603, Equal)
+9) FunctionalMessage(2800, , None)
+10) wait(7000)
+11) RequestResponse(22f186, 62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186, 62f18602, Equal)
+14) FunctionalMessage(2800, , None)
+15) wait(7000)
+16) RequestResponse(22f186, 62f18601, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f186, 62f18601, Equal)
+19) FunctionalMessage(2801, , None)
+20) wait(7000)
+21) RequestResponse(22f186, 62f18601, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f186, 62f18603, Equal)
+24) FunctionalMessage(2801, , None)
+25) wait(7000)
+26) RequestResponse(22f186, 62f18601, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f186, 62f18602, Equal)
+29) FunctionalMessage(2801, , None)
+30) wait(7000)
+31) RequestResponse(22f186, 62f18601, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f186, 62f18601, Equal)
+34) FunctionalMessage(2802, , None)
+35) wait(7000)
+36) RequestResponse(22f186, 62f18601, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f186, 62f18603, Equal)
+39) FunctionalMessage(2802, , None)
+40) wait(7000)
+41) RequestResponse(22f186, 62f18601, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f186, 62f18602, Equal)
+44) FunctionalMessage(2802, , None)
+45) wait(7000)
+46) RequestResponse(22f186, 62f18601, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f186, 62f18601, Equal)
+49) FunctionalMessage(2803, , None)
+50) wait(7000)
+51) RequestResponse(22f186, 62f18601, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f186, 62f18603, Equal)
+54) FunctionalMessage(2803, , None)
+55) wait(7000)
+56) RequestResponse(22f186, 62f18601, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f186, 62f18602, Equal)
+59) FunctionalMessage(2803, , None)
+60) wait(7000)
+61) RequestResponse(22f186, 62f18601, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 0))
+63) envvar(EnvTesterPresentOnOff(1; 0))
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f186, 62f18601, Equal)
+66) RequestResponse(2800, 7f687f, Equal)
+67) wait(7000)
+68) RequestResponse(22f186, 62f18601, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f186, 62f18603, Equal)
+71) RequestResponse(2800, 7f687f, Equal)
+72) wait(7000)
+73) RequestResponse(22f186, 62f18601, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f186, 62f18602, Equal)
+76) RequestResponse(2800, 7f687f, Equal)
+77) wait(7000)
+78) RequestResponse(22f186, 62f18601, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f186, 62f18601, Equal)
+81) RequestResponse(2801, 7f687f, Equal)
+82) wait(7000)
+83) RequestResponse(22f186, 62f18601, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f186, 62f18603, Equal)
+86) RequestResponse(2801, 7f687f, Equal)
+87) wait(7000)
+88) RequestResponse(22f186, 62f18601, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f186, 62f18602, Equal)
+91) RequestResponse(2801, 7f687f, Equal)
+92) wait(7000)
+93) RequestResponse(22f186, 62f18601, Equal)
+94) DiagSessionCtrl(Default)
+95) RequestResponse(22f186, 62f18601, Equal)
+96) RequestResponse(2802, 7f687f, Equal)
+97) wait(7000)
+98) RequestResponse(22f186, 62f18601, Equal)
+99) DiagSessionCtrl(Extended)
+100) RequestResponse(22f186, 62f18603, Equal)
+101) RequestResponse(2802, 7f687f, Equal)
+102) wait(7000)
+103) RequestResponse(22f186, 62f18601, Equal)
+104) DiagSessionCtrl(Programming)
+105) RequestResponse(22f186, 62f18602, Equal)
+106) RequestResponse(2802, 7f687f, Equal)
+107) wait(7000)
+108) RequestResponse(22f186, 62f18601, Equal)
+109) DiagSessionCtrl(Default)
+110) RequestResponse(22f186, 62f18601, Equal)
+111) RequestResponse(2803, 7f687f, Equal)
+112) wait(7000)
+113) RequestResponse(22f186, 62f18601, Equal)
+114) DiagSessionCtrl(Extended)
+115) RequestResponse(22f186, 62f18603, Equal)
+116) RequestResponse(2803, 7f687f, Equal)
+117) wait(7000)
+118) RequestResponse(22f186, 62f18601, Equal)
+119) DiagSessionCtrl(Programming)
+120) RequestResponse(22f186, 62f18602, Equal)
+121) RequestResponse(2803, 7f687f, Equal)
+122) wait(7000)
+123) RequestResponse(22f186, 62f18601, Equal)
+124) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request communication control with service 0x28 80 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request communication control with service 0x28 80 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request communication control with service 0x28 80 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 86
+19) Request communication control with service 0x28 81 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 86
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 86
+24) Request communication control with service 0x28 81 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 86
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 86
+29) Request communication control with service 0x28 81 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 86
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 86
+34) Request communication control with service 0x28 82 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 86
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 86
+39) Request communication control with service 0x28 82 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 86
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 86
+44) Request communication control with service 0x28 82 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 86
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 86
+49) Request communication control with service 0x28 83 in Functional Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 86
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 86
+54) Request communication control with service 0x28 83 in Functional Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 86
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 86
+59) Request communication control with service 0x28 83 in Functional Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 86
+62) Tester present OFF wait 0
+63) Tester present ON wait 0
+64) Change to Default session with service 0x10 01
+65) Read active session with service 0x22 F1 86
+66) Request communication control with service 0x28 80 in Physical Addressing Mode
+67) Wait 7000 ms
+68) Read active session with service 0x22 F1 86
+69) Change to Extended session with service 0x10 03
+70) Read active session with service 0x22 F1 86
+71) Request communication control with service 0x28 80 in Physical Addressing Mode
+72) Wait 7000 ms
+73) Read active session with service 0x22 F1 86
+74) Change to Programming session with service 0x10 02
+75) Read active session with service 0x22 F1 86
+76) Request communication control with service 0x28 80 in Physical Addressing Mode
+77) Wait 7000 ms
+78) Read active session with service 0x22 F1 86
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 86
+81) Request communication control with service 0x28 81 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 86
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 86
+86) Request communication control with service 0x28 81 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 86
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 86
+91) Request communication control with service 0x28 81 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 86
+94) Change to Default session with service 0x10 01
+95) Read active session with service 0x22 F1 86
+96) Request communication control with service 0x28 82 in Physical Addressing Mode
+97) Wait 7000 ms
+98) Read active session with service 0x22 F1 86
+99) Change to Extended session with service 0x10 03
+100) Read active session with service 0x22 F1 86
+101) Request communication control with service 0x28 82 in Physical Addressing Mode
+102) Wait 7000 ms
+103) Read active session with service 0x22 F1 86
+104) Change to Programming session with service 0x10 02
+105) Read active session with service 0x22 F1 86
+106) Request communication control with service 0x28 82 in Physical Addressing Mode
+107) Wait 7000 ms
+108) Read active session with service 0x22 F1 86
+109) Change to Default session with service 0x10 01
+110) Read active session with service 0x22 F1 86
+111) Request communication control with service 0x28 83 in Physical Addressing Mode
+112) Wait 7000 ms
+113) Read active session with service 0x22 F1 86
+114) Change to Extended session with service 0x10 03
+115) Read active session with service 0x22 F1 86
+116) Request communication control with service 0x28 83 in Physical Addressing Mode
+117) Wait 7000 ms
+118) Read active session with service 0x22 F1 86
+119) Change to Programming session with service 0x10 02
+120) Read active session with service 0x22 F1 86
+121) Request communication control with service 0x28 83 in Physical Addressing Mode
+122) Wait 7000 ms
+123) Read active session with service 0x22 F1 86
+124) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) FunctionalMessage(2880, , None)
+5) wait(7000)
+6) RequestResponse(22f186, 62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186, 62f18603, Equal)
+9) FunctionalMessage(2880, , None)
+10) wait(7000)
+11) RequestResponse(22f186, 62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186, 62f18602, Equal)
+14) FunctionalMessage(2880, , None)
+15) wait(7000)
+16) RequestResponse(22f186, 62f18601, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f186, 62f18601, Equal)
+19) FunctionalMessage(2881, , None)
+20) wait(7000)
+21) RequestResponse(22f186, 62f18601, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f186, 62f18603, Equal)
+24) FunctionalMessage(2881, , None)
+25) wait(7000)
+26) RequestResponse(22f186, 62f18601, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f186, 62f18602, Equal)
+29) FunctionalMessage(2881, , None)
+30) wait(7000)
+31) RequestResponse(22f186, 62f18601, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f186, 62f18601, Equal)
+34) FunctionalMessage(2882, , None)
+35) wait(7000)
+36) RequestResponse(22f186, 62f18601, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f186, 62f18603, Equal)
+39) FunctionalMessage(2882, , None)
+40) wait(7000)
+41) RequestResponse(22f186, 62f18601, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f186, 62f18602, Equal)
+44) FunctionalMessage(2882, , None)
+45) wait(7000)
+46) RequestResponse(22f186, 62f18601, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f186, 62f18601, Equal)
+49) FunctionalMessage(2883, , None)
+50) wait(7000)
+51) RequestResponse(22f186, 62f18601, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f186, 62f18603, Equal)
+54) FunctionalMessage(2883, , None)
+55) wait(7000)
+56) RequestResponse(22f186, 62f18601, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f186, 62f18602, Equal)
+59) FunctionalMessage(2883, , None)
+60) wait(7000)
+61) RequestResponse(22f186, 62f18601, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 0))
+63) envvar(EnvTesterPresentOnOff(1; 0))
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f186, 62f18601, Equal)
+66) RequestResponse(2880, 7f687f, Equal)
+67) wait(7000)
+68) RequestResponse(22f186, 62f18601, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f186, 62f18603, Equal)
+71) RequestResponse(2880, 7f687f, Equal)
+72) wait(7000)
+73) RequestResponse(22f186, 62f18601, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f186, 62f18602, Equal)
+76) RequestResponse(2880, 7f687f, Equal)
+77) wait(7000)
+78) RequestResponse(22f186, 62f18601, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f186, 62f18601, Equal)
+81) RequestResponse(2881, 7f687f, Equal)
+82) wait(7000)
+83) RequestResponse(22f186, 62f18601, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f186, 62f18603, Equal)
+86) RequestResponse(2881, 7f687f, Equal)
+87) wait(7000)
+88) RequestResponse(22f186, 62f18601, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f186, 62f18602, Equal)
+91) RequestResponse(2881, 7f687f, Equal)
+92) wait(7000)
+93) RequestResponse(22f186, 62f18601, Equal)
+94) DiagSessionCtrl(Default)
+95) RequestResponse(22f186, 62f18601, Equal)
+96) RequestResponse(2882, 7f687f, Equal)
+97) wait(7000)
+98) RequestResponse(22f186, 62f18601, Equal)
+99) DiagSessionCtrl(Extended)
+100) RequestResponse(22f186, 62f18603, Equal)
+101) RequestResponse(2882, 7f687f, Equal)
+102) wait(7000)
+103) RequestResponse(22f186, 62f18601, Equal)
+104) DiagSessionCtrl(Programming)
+105) RequestResponse(22f186, 62f18602, Equal)
+106) RequestResponse(2882, 7f687f, Equal)
+107) wait(7000)
+108) RequestResponse(22f186, 62f18601, Equal)
+109) DiagSessionCtrl(Default)
+110) RequestResponse(22f186, 62f18601, Equal)
+111) RequestResponse(2883, 7f687f, Equal)
+112) wait(7000)
+113) RequestResponse(22f186, 62f18601, Equal)
+114) DiagSessionCtrl(Extended)
+115) RequestResponse(22f186, 62f18603, Equal)
+116) RequestResponse(2883, 7f687f, Equal)
+117) wait(7000)
+118) RequestResponse(22f186, 62f18601, Equal)
+119) DiagSessionCtrl(Programming)
+120) RequestResponse(22f186, 62f18602, Equal)
+121) RequestResponse(2883, 7f687f, Equal)
+122) wait(7000)
+123) RequestResponse(22f186, 62f18601, Equal)
+124) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>2.8 Service 2Eh - Write Data by Identifier</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_40</t>
+  </si>
+  <si>
+    <t>2.10 Service 3Eh - Tester Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Change to Default session with service 0x10 01
+2) Wait 1000 ms
+3) Read active session with service 0x22 F1 86
+4) Request tester present with service 0x3E 00 in Physical Addressing Mode
+5) Change to Extended session with service 0x10 03
+6) Wait 1000 ms
+7) Read active session with service 0x22 F1 86
+8) Request tester present with service 0x3E 00 in Physical Addressing Mode
+9) Change to Programming session with service 0x10 02
+10) Wait 1000 ms
+11) Read active session with service 0x22 F1 86
+12) Request tester present with service 0x3E 00 in Physical Addressing Mode
+13) Change to Default session with service 0x10 01
+14) Read active session with service 0x22 F1 86
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 86 01
+4) Negative response is received: 0x7F 7E 7F
+5) -
+6) -
+7) Positive response is received: 0x 62 F1 86 03
+8) Negative response is received: 0x7F 7E 7F
+9) -
+10) -
+11) Positive response is received: 0x 62 F1 86 02
+12) Negative response is received: 0x7F 7E 7F
+13) -
+14) Positive response is received: 0x 62 F1 86 01
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) DiagSessionCtrl(Default)
+2) wait(1000)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) RequestResponse(3e00, 7f7e7f, Equal)
+5) DiagSessionCtrl(Extended)
+6) wait(1000)
+7) RequestResponse(22f186, 62f18603, Equal)
+8) RequestResponse(3e00, 7f7e7f, Equal)
+9) DiagSessionCtrl(Programming)
+10) wait(1000)
+11) RequestResponse(22f186, 62f18602, Equal)
+12) RequestResponse(3e00, 7f7e7f, Equal)
+13) DiagSessionCtrl(Default)
+14) RequestResponse(22f186, 62f18601, Equal)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 86
+19) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17) -
+18) Positive response is received: 0x 62 F1 86 01
+19) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17) DiagSessionCtrl(Default)
+18) RequestResponse(22f186, 62f18601, Equal)
+19) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+1) Change to Default session with service 0x10 01
+2) Wait 1000 ms
+3) Read active session with service 0x22 F1 86
+4) Request tester present with service 0x3E 80 in Physical Addressing Mode
+5) Request tester present with service 0x3E 80 in Functional Addressing Mode
+6) Change to Extended session with service 0x10 03
+7) Wait 1000 ms
+8) Read active session with service 0x22 F1 86
+9) Request tester present with service 0x3E 80 in Physical Addressing Mode
+10) Request tester present with service 0x3E 80 in Functional Addressing Mode
+11) Change to Programming session with service 0x10 02
+12) Wait 1000 ms
+13) Read active session with service 0x22 F1 86
+14) Request tester present with service 0x3E 80 in Physical Addressing Mode
+15) Request tester present with service 0x3E 80 in Functional Addressing Mode
+16) Change to Default session with service 0x10 01
+17) Read active session with service 0x22 F1 86
+18) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+1) -
+2) -
+3) Positive response is received: 0x 62 F1 86 01
+4) Negative response is received: 0x7F 7E 7F
+5) No response is received
+6) -
+7) -
+8) Positive response is received: 0x 62 F1 86 03
+9) Negative response is received: 0x7F 7E 7F
+10) No response is received
+11) -
+12) -
+13) Positive response is received: 0x 62 F1 86 02
+14) Negative response is received: 0x7F 7E 7F
+15) No response is received
+16) -
+17) Positive response is received: 0x 62 F1 86 01
+18) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+1) DiagSessionCtrl(Default)
+2) wait(1000)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) RequestResponse(3e80, 7f7e7f, Equal)
+5) FunctionalMessage(3e80, , None)
+6) DiagSessionCtrl(Extended)
+7) wait(1000)
+8) RequestResponse(22f186, 62f18603, Equal)
+9) RequestResponse(3e80, 7f7e7f, Equal)
+10) FunctionalMessage(3e80, , None)
+11) DiagSessionCtrl(Programming)
+12) wait(1000)
+13) RequestResponse(22f186, 62f18602, Equal)
+14) RequestResponse(3e80, 7f7e7f, Equal)
+15) FunctionalMessage(3e80, , None)
+16) DiagSessionCtrl(Default)
+17) RequestResponse(22f186, 62f18601, Equal)
+18) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>2.2 Service 11h - ECU Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 86
+19) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 86
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 86
+24) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 86
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 86
+29) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 86
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 86
+34) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 86
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 86
+39) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 86
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 86
+44) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 86
+47) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 86 01
+4) Negative response is received: 0x7F 51 7F
+5) -
+6) Positive response is received: 0x 62 F1 86 01
+7) -
+8) Positive response is received: 0x 62 F1 86 03
+9) Negative response is received: 0x7F 51 7F
+10) -
+11) Positive response is received: 0x 62 F1 86 01
+12) -
+13) Positive response is received: 0x 62 F1 86 02
+14) Negative response is received: 0x7F 51 7F
+15) -
+16) Positive response is received: 0x 62 F1 86 01
+17) -
+18) Positive response is received: 0x 62 F1 86 01
+19) Negative response is received: 0x7F 51 7F
+20) -
+21) Positive response is received: 0x 62 F1 86 01
+22) -
+23) Positive response is received: 0x 62 F1 86 03
+24) Negative response is received: 0x7F 51 7F
+25) -
+26) Positive response is received: 0x 62 F1 86 01
+27) -
+28) Positive response is received: 0x 62 F1 86 02
+29) Negative response is received: 0x7F 51 7F
+30) -
+31) Positive response is received: 0x 62 F1 86 01
+32) -
+33) Positive response is received: 0x 62 F1 86 01
+34) Negative response is received: 0x7F 51 7F
+35) -
+36) Positive response is received: 0x 62 F1 86 01
+37) -
+38) Positive response is received: 0x 62 F1 86 03
+39) Negative response is received: 0x7F 51 7F
+40) -
+41) Positive response is received: 0x 62 F1 86 01
+42) -
+43) Positive response is received: 0x 62 F1 86 02
+44) Negative response is received: 0x7F 51 7F
+45) -
+46) Positive response is received: 0x 62 F1 86 01
+47) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) RequestResponse(1101, 7f517f, Equal)
+5) wait(7000)
+6) RequestResponse(22f186, 62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186, 62f18603, Equal)
+9) RequestResponse(1101, 7f517f, Equal)
+10) wait(7000)
+11) RequestResponse(22f186, 62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186, 62f18602, Equal)
+14) RequestResponse(1101, 7f517f, Equal)
+15) wait(7000)
+16) RequestResponse(22f186, 62f18601, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f186, 62f18601, Equal)
+19) RequestResponse(1102, 7f517f, Equal)
+20) wait(7000)
+21) RequestResponse(22f186, 62f18601, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f186, 62f18603, Equal)
+24) RequestResponse(1102, 7f517f, Equal)
+25) wait(7000)
+26) RequestResponse(22f186, 62f18601, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f186, 62f18602, Equal)
+29) RequestResponse(1102, 7f517f, Equal)
+30) wait(7000)
+31) RequestResponse(22f186, 62f18601, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f186, 62f18601, Equal)
+34) RequestResponse(1103, 7f517f, Equal)
+35) wait(7000)
+36) RequestResponse(22f186, 62f18601, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f186, 62f18603, Equal)
+39) RequestResponse(1103, 7f517f, Equal)
+40) wait(7000)
+41) RequestResponse(22f186, 62f18601, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f186, 62f18602, Equal)
+44) RequestResponse(1103, 7f517f, Equal)
+45) wait(7000)
+46) RequestResponse(22f186, 62f18601, Equal)
+47) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request reset the camera with service 0x11 01 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request reset the camera with service 0x11 01 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request reset the camera with service 0x11 01 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 86
+19) Request reset the camera with service 0x11 02 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 86
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 86
+24) Request reset the camera with service 0x11 02 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 86
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 86
+29) Request reset the camera with service 0x11 02 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 86
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 86
+34) Request reset the camera with service 0x11 03 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 86
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 86
+39) Request reset the camera with service 0x11 03 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 86
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 86
+44) Request reset the camera with service 0x11 03 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 86
+47) Tester present OFF wait 0
+48) Tester present ON wait 0
+49) Change to Default session with service 0x10 01
+50) Read active session with service 0x22 F1 86
+51) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+52) Wait 7000 ms
+53) Read active session with service 0x22 F1 86
+54) Change to Extended session with service 0x10 03
+55) Read active session with service 0x22 F1 86
+56) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+57) Wait 7000 ms
+58) Read active session with service 0x22 F1 86
+59) Change to Programming session with service 0x10 02
+60) Read active session with service 0x22 F1 86
+61) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+62) Wait 7000 ms
+63) Read active session with service 0x22 F1 86
+64) Change to Default session with service 0x10 01
+65) Read active session with service 0x22 F1 86
+66) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+67) Wait 7000 ms
+68) Read active session with service 0x22 F1 86
+69) Change to Extended session with service 0x10 03
+70) Read active session with service 0x22 F1 86
+71) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+72) Wait 7000 ms
+73) Read active session with service 0x22 F1 86
+74) Change to Programming session with service 0x10 02
+75) Read active session with service 0x22 F1 86
+76) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+77) Wait 7000 ms
+78) Read active session with service 0x22 F1 86
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 86
+81) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 86
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 86
+86) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 86
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 86
+91) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 86
+94) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186, 62f18601, Equal)
+4) FunctionalMessage(1101, , None)
+5) wait(7000)
+6) RequestResponse(22f186, 62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186, 62f18603, Equal)
+9) FunctionalMessage(1101, , None)
+10) wait(7000)
+11) RequestResponse(22f186, 62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186, 62f18602, Equal)
+14) FunctionalMessage(1101, , None)
+15) wait(7000)
+16) RequestResponse(22f186, 62f18601, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f186, 62f18601, Equal)
+19) FunctionalMessage(1102, , None)
+20) wait(7000)
+21) RequestResponse(22f186, 62f18601, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f186, 62f18603, Equal)
+24) FunctionalMessage(1102, , None)
+25) wait(7000)
+26) RequestResponse(22f186, 62f18601, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f186, 62f18602, Equal)
+29) FunctionalMessage(1102, , None)
+30) wait(7000)
+31) RequestResponse(22f186, 62f18601, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f186, 62f18601, Equal)
+34) FunctionalMessage(1103, , None)
+35) wait(7000)
+36) RequestResponse(22f186, 62f18601, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f186, 62f18603, Equal)
+39) FunctionalMessage(1103, , None)
+40) wait(7000)
+41) RequestResponse(22f186, 62f18601, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f186, 62f18602, Equal)
+44) FunctionalMessage(1103, , None)
+45) wait(7000)
+46) RequestResponse(22f186, 62f18601, Equal)
+47) envvar(EnvTesterPresentOnOff(0; 0))
+48) envvar(EnvTesterPresentOnOff(1; 0))
+49) DiagSessionCtrl(Default)
+50) RequestResponse(22f186, 62f18601, Equal)
+51) RequestResponse(1101, 7f517f, Equal)
+52) wait(7000)
+53) RequestResponse(22f186, 62f18601, Equal)
+54) DiagSessionCtrl(Extended)
+55) RequestResponse(22f186, 62f18603, Equal)
+56) RequestResponse(1101, 7f517f, Equal)
+57) wait(7000)
+58) RequestResponse(22f186, 62f18601, Equal)
+59) DiagSessionCtrl(Programming)
+60) RequestResponse(22f186, 62f18602, Equal)
+61) RequestResponse(1101, 7f517f, Equal)
+62) wait(7000)
+63) RequestResponse(22f186, 62f18601, Equal)
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f186, 62f18601, Equal)
+66) RequestResponse(1102, 7f517f, Equal)
+67) wait(7000)
+68) RequestResponse(22f186, 62f18601, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f186, 62f18603, Equal)
+71) RequestResponse(1102, 7f517f, Equal)
+72) wait(7000)
+73) RequestResponse(22f186, 62f18601, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f186, 62f18602, Equal)
+76) RequestResponse(1102, 7f517f, Equal)
+77) wait(7000)
+78) RequestResponse(22f186, 62f18601, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f186, 62f18601, Equal)
+81) RequestResponse(1103, 7f517f, Equal)
+82) wait(7000)
+83) RequestResponse(22f186, 62f18601, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f186, 62f18603, Equal)
+86) RequestResponse(1103, 7f517f, Equal)
+87) wait(7000)
+88) RequestResponse(22f186, 62f18601, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f186, 62f18602, Equal)
+91) RequestResponse(1103, 7f517f, Equal)
+92) wait(7000)
+93) RequestResponse(22f186, 62f18601, Equal)
+94) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_37</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_38</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_39</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_41</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_42</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_43</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_44</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 0 Wait 100 ms
+2) Request tester present with service 0x3E 00 in Physical Addressing Mode
+3) Request tester present with service 0x3E 00 in Functional Addressing Mode
+4) Request tester present with service 0x3E 80 in Physical Addressing Mode
+5) Request tester present with service 0x3E 80 in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) No response is received
+3) No response is received
+4) No response is received
+5) No response is received
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) EnvVar(EnvVehicle_Speed(0, 100))
+2) RequestResponse(3e00, , None)
+3) FunctionalMessage(3e00, , None)
+4) RequestResponse(3e80, , None)
+5) FunctionalMessage(3e80, , None)
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) -
+7) Negative response is received: 0x7F 7E 22
+8) Negative response is received: 0x7F 7E 22
+9) Negative response is received: 0x7F 7E 22
+10) Negative response is received: 0x7F 7E 22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11) EnvVar(EnvVoltage(-1, 100))
+12) RequestResponse(3e00, 7f7e22, Equal)
+13) FunctionalMessage(3e00, 7f7e22, Equal)
+14) RequestResponse(3e80, 7f7e22, Equal)
+15) FunctionalMessage(3e80, 7f7e22, Equal)
+</t>
+  </si>
+  <si>
+    <t>2.1.5 Check all allowed diagnostic sessions in service 0x10</t>
+  </si>
+  <si>
+    <t>2.1.6 Session transitions</t>
+  </si>
+  <si>
+    <t>2.1.6.1 Session transitions - From Default Session</t>
+  </si>
+  <si>
+    <t>2.1.6.2 Session transitions - From Programming Session</t>
+  </si>
+  <si>
+    <t>2.1.6.3 Session transitions - From Extended Session</t>
+  </si>
+  <si>
+    <t>2.1.7 Check all supported addressing mode in service 0x10</t>
+  </si>
+  <si>
+    <t>2.1.8 Check suppress bit in service 0x10</t>
+  </si>
+  <si>
+    <t>2.2.9 Check all allowed diagnostic sessions in service 0x11</t>
+  </si>
+  <si>
+    <t>2.2.10 Check all supported addressing mode in service 0x11</t>
+  </si>
+  <si>
+    <t>2.2.11 Check suppress bit in service 0x11</t>
+  </si>
+  <si>
+    <t>2.2.12.12: Check Vehicle_Speed () condition in service 0x11</t>
+  </si>
+  <si>
+    <t>2.2.13.13: Check Engine_Status (Crank) condition in service 0x11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the Engine_Status to Value 1 (Crank) Wait 100 ms
+2) Request tester present with service 0x3E 00 in Physical Addressing Mode
+3) Request tester present with service 0x3E 00 in Functional Addressing Mode
+4) Request tester present with service 0x3E 80 in Physical Addressing Mode
+5) Request tester present with service 0x3E 80 in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11) EnvVar(EnvEngine_Status(1, 100))
+12) RequestResponse(3e00, 7f7e22, Equal)
+13) FunctionalMessage(3e00, 7f7e22, Equal)
+14) RequestResponse(3e80, 7f7e22, Equal)
+15) FunctionalMessage(3e80, 7f7e22, Equal)
+</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_18</t>
+  </si>
+  <si>
+    <t>2.2.14.14: Check Engine_Status (Reverse) condition in service 0x11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the Engine_Status to Value 0 (Reverse) Wait 100 ms
+2) Request tester present with service 0x3E 00 in Physical Addressing Mode
+3) Request tester present with service 0x3E 00 in Functional Addressing Mode
+4) Request tester present with service 0x3E 80 in Physical Addressing Mode
+5) Request tester present with service 0x3E 80 in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) -
+7) No response is received
+8) No response is received
+9) No response is received
+10) No response is received
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11) EnvVar(EnvEngine_Status(0, 100))
+12) RequestResponse(3e00, , None)
+13) FunctionalMessage(3e00, , None)
+14) RequestResponse(3e80, , None)
+15) FunctionalMessage(3e80, , None)
+</t>
+  </si>
+  <si>
+    <t>2.2.15.15: Check Engine_Status (Stop) condition in service 0x11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the Engine_Status to Value 0 (Stop) Wait 100 ms
+2) Request tester present with service 0x3E 00 in Physical Addressing Mode
+3) Request tester present with service 0x3E 00 in Functional Addressing Mode
+4) Request tester present with service 0x3E 80 in Physical Addressing Mode
+5) Request tester present with service 0x3E 80 in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t>2.2.16.16: Check Voltage (Running) condition in service 0x11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (Running) Voltage to Value -1 Wait 100 ms
+2) Request tester present with service 0x3E 00 in Physical Addressing Mode
+3) Request tester present with service 0x3E 00 in Functional Addressing Mode
+4) Request tester present with service 0x3E 80 in Physical Addressing Mode
+5) Request tester present with service 0x3E 80 in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t>2.3.3 Check all allowed diagnostic sessions in service 0x14</t>
+  </si>
+  <si>
+    <t>2.3.4 Check all supported addressing mode in service 0x14</t>
+  </si>
+  <si>
+    <t>2.5.6 LabT_DCOM: Service 22:Check all allowed diagnostic sessions in service 0x22</t>
+  </si>
+  <si>
+    <t>2.5.7 LabT_DCOM: Service 22:Check all supported addressing mode in service 0x22</t>
+  </si>
+  <si>
+    <t>2.5.8 LabT_DCOM:Service 22:Default DID in Default Session</t>
+  </si>
+  <si>
+    <t>2.5.9 LabT_DCOM:Service 22:Default DID in Extended Session</t>
+  </si>
+  <si>
+    <t>2.5.10 LabT_DCOM:Service 22:Default DID in Programming Session</t>
+  </si>
+  <si>
+    <t>2.6.4 Check all allowed diagnostic sessions in service 0x27</t>
+  </si>
+  <si>
+    <t>2.6.5 Check all supported addressing mode in service 0x27</t>
+  </si>
+  <si>
+    <t>2.6.6 Check suppress bit in service 0x27</t>
+  </si>
+  <si>
+    <t>2.7.4 Check all allowed diagnostic sessions in service 0x28</t>
+  </si>
+  <si>
+    <t>2.7.5 Check all supported addressing mode in service 0x28</t>
+  </si>
+  <si>
+    <t>2.7.6 Check suppress bit in service 0x28</t>
+  </si>
+  <si>
+    <t>2.8.4 LabT_DCOM: Service 2E:Check all allowed diagnostic sessions in service 0x2E</t>
+  </si>
+  <si>
+    <t>2.8.5 LabT_DCOM: Service 2E:Check all supported addressing mode in service 0x2E</t>
+  </si>
+  <si>
+    <t>2.8.6 Check suppress bit in service 0x2E</t>
+  </si>
+  <si>
+    <t>2.10.8 Check all allowed diagnostic sessions in service 0x3E</t>
+  </si>
+  <si>
+    <t>2.10.9 Check all supported addressing mode in service 0x3E</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_45</t>
+  </si>
+  <si>
+    <t>2.10.10Check suppress bit in service 0x3E</t>
+  </si>
+  <si>
+    <t>Testcase_af_asdf_af_DCOM_49</t>
+  </si>
+  <si>
+    <t>2.10.14.14: Check Voltage () condition in service 0x3E</t>
   </si>
 </sst>
 </file>
@@ -968,7 +3656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4560C7-917B-441E-B27B-86199D792678}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,36 +3754,36 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1109,147 +3797,1060 @@
     </row>
     <row r="7" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>25</v>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="405" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
